--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6875,7 +6875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7343,9 +7343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9856,20 +9856,20 @@
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K106" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L106" s="45">
         <v>0</v>
       </c>
       <c r="M106" s="45">
         <f>(K106-J106)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N106" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
         <v>776</v>
@@ -9896,20 +9896,20 @@
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K107" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L107" s="45">
         <v>0</v>
       </c>
       <c r="M107" s="45">
         <f>(K107-J107)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N107" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
         <v>776</v>

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2591,6 +2588,9 @@
   </si>
   <si>
     <t>NationalGrid Office Calibration optim 14</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2668,6 +2668,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4597,7 +4602,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4703,6 +4708,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1836">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6845,17 +6851,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6879,17 +6885,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6898,7 +6904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6907,7 +6913,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6918,18 +6924,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6940,18 +6946,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6989,7 +6995,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7011,40 +7017,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -7109,11 +7115,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>538</v>
       </c>
@@ -7142,7 +7148,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>543</v>
       </c>
@@ -7154,7 +7160,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>557</v>
       </c>
@@ -7166,7 +7172,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>558</v>
       </c>
@@ -7178,7 +7184,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>539</v>
       </c>
@@ -7188,7 +7194,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>541</v>
       </c>
@@ -7200,49 +7206,49 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7250,15 +7256,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7269,25 +7275,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7295,25 +7301,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7343,37 +7349,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7408,7 +7414,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7424,7 +7430,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7498,18 +7504,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>733</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7517,46 +7523,46 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7570,7 +7576,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7595,7 +7601,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>849</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7618,7 +7624,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7632,16 +7638,16 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>658</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7654,12 +7660,12 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7672,18 +7678,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7691,33 +7697,35 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="17">
+      <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="31">
-        <v>12717</v>
+      <c r="G14" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="53">
+        <v>104666</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>200</v>
@@ -7745,10 +7753,10 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7762,15 +7770,15 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>204</v>
@@ -7779,10 +7787,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H17" s="43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="43">
         <v>8</v>
@@ -7801,18 +7809,18 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7821,15 +7829,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7838,15 +7846,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>745</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7855,15 +7863,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>746</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>747</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7872,15 +7880,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7889,15 +7897,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7906,15 +7914,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7923,15 +7931,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7940,15 +7948,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>757</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7957,15 +7965,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>758</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>759</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7974,15 +7982,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7991,15 +7999,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8008,15 +8016,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8025,18 +8033,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -8044,15 +8052,15 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -8060,18 +8068,18 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>815</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8079,15 +8087,15 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>784</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>785</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8112,18 +8120,18 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>786</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>787</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8148,15 +8156,15 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8170,12 +8178,12 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8184,7 +8192,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8206,15 +8214,15 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8228,12 +8236,12 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8263,15 +8271,15 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8280,7 +8288,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8294,12 +8302,12 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8308,20 +8316,20 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8335,12 +8343,12 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8370,15 +8378,15 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8387,7 +8395,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8401,12 +8409,12 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8415,7 +8423,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8423,12 +8431,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8442,12 +8450,12 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8477,15 +8485,15 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8494,7 +8502,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8508,12 +8516,12 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8522,20 +8530,20 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8549,12 +8557,12 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8584,15 +8592,15 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8601,7 +8609,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8615,12 +8623,12 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8629,26 +8637,26 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8656,90 +8664,90 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8747,12 +8755,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="49" customFormat="1">
       <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8764,12 +8772,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8797,10 +8805,10 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8837,12 +8845,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="49" customFormat="1">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8854,12 +8862,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8887,10 +8895,10 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8907,7 +8915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8921,18 +8929,18 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="49" customFormat="1">
       <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8944,12 +8952,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8977,10 +8985,10 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8997,7 +9005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -9011,13 +9019,13 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="49" customFormat="1">
       <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
@@ -9034,7 +9042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9055,12 +9063,12 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9088,10 +9096,10 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9109,7 +9117,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9127,7 +9135,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9145,7 +9153,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9162,7 +9170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9191,12 +9199,12 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9229,7 +9237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9255,7 +9263,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9281,7 +9289,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9307,7 +9315,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9333,7 +9341,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9359,7 +9367,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9385,7 +9393,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9411,7 +9419,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9428,7 +9436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9457,12 +9465,12 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9491,32 +9499,32 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>820</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>821</v>
-      </c>
       <c r="D91" s="50" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9545,32 +9553,32 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>824</v>
-      </c>
       <c r="D93" s="50" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9599,10 +9607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9619,7 +9627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9639,12 +9647,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9653,7 +9661,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9676,15 +9684,15 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9693,18 +9701,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9713,18 +9721,18 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9733,18 +9741,18 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>831</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>832</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9756,12 +9764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9770,18 +9778,18 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9790,18 +9798,18 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9810,13 +9818,13 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" s="38" customFormat="1">
       <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
@@ -9824,10 +9832,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9835,12 +9843,12 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9849,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9872,15 +9880,15 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9889,7 +9897,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9912,15 +9920,15 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -9937,467 +9945,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10425,20 +10433,20 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10453,7 +10461,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10488,7 +10496,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10553,7 +10561,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10583,7 +10591,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10612,7 +10620,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10641,16 +10649,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10672,16 +10680,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10702,16 +10710,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10732,16 +10740,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10762,16 +10770,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10792,16 +10800,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10822,16 +10830,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10852,16 +10860,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10882,16 +10890,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10912,16 +10920,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10942,16 +10950,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10972,16 +10980,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11003,16 +11011,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11033,16 +11041,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11063,16 +11071,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11093,16 +11101,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11123,16 +11131,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11153,16 +11161,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11183,16 +11191,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11213,16 +11221,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11243,16 +11251,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11273,16 +11281,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11297,16 +11305,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11321,16 +11329,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11345,16 +11353,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11369,25 +11377,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -11412,19 +11420,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11443,7 +11451,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11464,7 +11472,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11487,7 +11495,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11510,7 +11518,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11541,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11556,7 +11564,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11579,7 +11587,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11602,7 +11610,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11625,7 +11633,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11648,7 +11656,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11667,7 +11675,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11688,7 +11696,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11711,7 +11719,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11734,7 +11742,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11765,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11780,7 +11788,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11803,7 +11811,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11826,7 +11834,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11849,7 +11857,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11872,7 +11880,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11891,7 +11899,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11914,7 +11922,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11937,7 +11945,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11960,7 +11968,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11983,7 +11991,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12014,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12037,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12060,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12083,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12106,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12117,7 +12125,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12138,7 +12146,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12161,7 +12169,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12184,7 +12192,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12207,7 +12215,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12238,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12261,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12276,7 +12284,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12299,7 +12307,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12322,7 +12330,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12341,7 +12349,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12362,7 +12370,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12385,7 +12393,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12416,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12439,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12454,7 +12462,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12477,7 +12485,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12500,7 +12508,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12523,7 +12531,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12546,7 +12554,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12565,7 +12573,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12586,7 +12594,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12609,7 +12617,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12632,7 +12640,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12655,7 +12663,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12678,7 +12686,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12701,7 +12709,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12724,7 +12732,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12747,7 +12755,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12770,7 +12778,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12789,7 +12797,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12810,7 +12818,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12835,7 +12843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12858,7 +12866,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12881,7 +12889,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12904,7 +12912,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12927,7 +12935,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12950,7 +12958,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12973,7 +12981,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12996,7 +13004,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13019,7 +13027,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13038,7 +13046,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13059,7 +13067,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13090,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13130,7 +13138,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13153,7 +13161,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13176,7 +13184,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13199,7 +13207,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13222,7 +13230,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13245,7 +13253,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13268,7 +13276,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13291,7 +13299,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13314,7 +13322,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13337,7 +13345,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13356,7 +13364,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13379,7 +13387,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13402,7 +13410,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13425,7 +13433,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13456,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13479,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13502,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13525,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13548,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13571,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13586,7 +13594,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13605,7 +13613,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13649,7 +13657,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13670,7 +13678,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13695,7 +13703,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13714,7 +13722,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13745,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13762,7 +13770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13785,7 +13793,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13806,7 +13814,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13825,7 +13833,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13858,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13881,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13904,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13919,7 +13927,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13942,7 +13950,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13965,7 +13973,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13988,7 +13996,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14007,7 +14015,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14030,7 +14038,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14053,7 +14061,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14076,7 +14084,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14095,7 +14103,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14118,7 +14126,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14141,7 +14149,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14164,7 +14172,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14187,7 +14195,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14210,7 +14218,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14233,7 +14241,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14252,7 +14260,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14285,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14308,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14331,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14354,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14369,7 +14377,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14392,7 +14400,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14415,7 +14423,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14438,7 +14446,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14461,7 +14469,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14480,7 +14488,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14513,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14534,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14557,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14580,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14603,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14626,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14641,7 +14649,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14672,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14687,7 +14695,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14710,7 +14718,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14733,7 +14741,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14756,7 +14764,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14779,7 +14787,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14802,7 +14810,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14821,7 +14829,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14852,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14863,7 +14871,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14886,7 +14894,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14917,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14928,7 +14936,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14961,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14976,7 +14984,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14999,7 +15007,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15030,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15053,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15091,7 +15099,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15114,7 +15122,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15137,7 +15145,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15160,7 +15168,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15179,7 +15187,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15204,7 +15212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15235,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15250,7 +15258,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15273,7 +15281,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15296,7 +15304,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15319,7 +15327,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15342,7 +15350,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15365,7 +15373,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15388,7 +15396,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15411,7 +15419,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15430,7 +15438,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15453,7 +15461,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15476,7 +15484,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15499,7 +15507,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15522,7 +15530,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15541,7 +15549,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15564,7 +15572,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15587,7 +15595,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15618,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15633,7 +15641,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15652,7 +15660,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15681,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15696,7 +15704,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15715,7 +15723,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15746,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15763,7 +15771,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15792,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15809,7 +15817,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15834,7 +15842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15853,7 +15861,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15878,7 +15886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15901,7 +15909,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15924,7 +15932,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15947,7 +15955,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15970,7 +15978,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15993,7 +16001,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16016,7 +16024,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16039,7 +16047,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16062,7 +16070,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16081,7 +16089,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16137,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16160,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16183,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16206,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16229,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16252,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16275,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16298,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16309,7 +16317,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16338,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16361,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16376,7 +16384,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16407,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16422,7 +16430,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16445,7 +16453,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16468,7 +16476,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16491,7 +16499,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16514,7 +16522,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16537,7 +16545,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16560,7 +16568,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16583,7 +16591,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16606,7 +16614,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16629,7 +16637,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16652,7 +16660,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16683,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16694,7 +16702,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16715,7 +16723,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16738,7 +16746,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16761,7 +16769,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16792,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16807,7 +16815,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16830,7 +16838,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16853,7 +16861,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16876,7 +16884,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16899,7 +16907,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16922,7 +16930,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16945,7 +16953,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16968,7 +16976,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16991,7 +16999,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17014,7 +17022,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17037,7 +17045,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17060,7 +17068,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17079,7 +17087,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17104,7 +17112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17127,7 +17135,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17150,7 +17158,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17173,7 +17181,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17196,7 +17204,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17215,7 +17223,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17240,7 +17248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17263,7 +17271,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17282,7 +17290,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17301,7 +17309,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17320,7 +17328,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17341,7 +17349,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17364,7 +17372,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17387,7 +17395,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17410,7 +17418,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17433,7 +17441,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17456,7 +17464,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17479,7 +17487,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17502,7 +17510,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17525,7 +17533,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17548,7 +17556,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17571,7 +17579,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17590,7 +17598,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17613,7 +17621,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17632,7 +17640,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17657,7 +17665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17680,7 +17688,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17703,7 +17711,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17726,7 +17734,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17749,7 +17757,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17772,7 +17780,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17795,7 +17803,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17818,7 +17826,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17841,7 +17849,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17864,7 +17872,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17887,7 +17895,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17906,7 +17914,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17929,7 +17937,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17948,7 +17956,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17977,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17988,7 +17996,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18009,7 +18017,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18028,7 +18036,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18049,7 +18057,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18068,7 +18076,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18091,7 +18099,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18110,7 +18118,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18135,7 +18143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18158,7 +18166,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18189,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18204,7 +18212,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18227,7 +18235,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18250,7 +18258,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18273,7 +18281,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18296,7 +18304,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18319,7 +18327,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18338,7 +18346,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18361,7 +18369,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18384,7 +18392,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18407,7 +18415,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18430,7 +18438,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18449,7 +18457,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18472,7 +18480,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18495,7 +18503,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18539,7 +18547,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18564,7 +18572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18587,7 +18595,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18606,7 +18614,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18627,7 +18635,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18648,7 +18656,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18679,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18698,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18709,7 +18717,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18734,7 +18742,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18759,7 +18767,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18773,7 +18781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18796,7 +18804,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18816,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18836,7 +18844,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18856,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18873,7 +18881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18896,7 +18904,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18919,7 +18927,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18933,7 +18941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18956,7 +18964,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18979,7 +18987,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18999,7 +19007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -19019,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -19062,7 +19070,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19091,7 +19099,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19130,7 +19138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19144,7 +19152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19164,7 +19172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19178,7 +19186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19198,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19218,7 +19226,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19238,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19258,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19278,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19318,7 +19326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19338,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19358,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19392,7 +19400,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19412,7 +19420,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19428,7 +19436,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19454,7 +19462,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19495,7 +19503,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19509,7 +19517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19529,7 +19537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19543,7 +19551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19582,17 +19590,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19603,7 +19611,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19617,7 +19625,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19631,7 +19639,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19645,7 +19653,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19659,7 +19667,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19673,7 +19681,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19687,7 +19695,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19701,7 +19709,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19715,7 +19723,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19729,7 +19737,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19743,7 +19751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19754,8 +19762,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19781,7 +19789,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19822,7 +19830,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19863,7 +19871,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19927,7 +19935,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19956,7 +19964,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19988,7 +19996,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -20008,9 +20016,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -20031,7 +20039,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -20042,7 +20050,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -20050,7 +20058,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2140,12 +2140,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>2013-12-21</t>
-  </si>
-  <si>
-    <t>2013-01-21</t>
-  </si>
-  <si>
     <t>calibration_data</t>
   </si>
   <si>
@@ -2591,6 +2585,12 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4705,10 +4705,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1836">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6851,17 +6851,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6885,12 +6885,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6924,7 +6924,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6946,18 +6946,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7033,10 +7033,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7044,10 +7044,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7061,7 +7061,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7208,13 +7208,13 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D30" s="35"/>
     </row>
@@ -7243,12 +7243,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7261,10 +7261,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7310,13 +7310,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7349,34 +7349,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7405,16 +7405,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7509,13 +7509,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7528,16 +7528,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7545,16 +7545,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7590,7 +7590,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7615,7 +7615,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7683,13 +7683,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7697,7 +7697,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7713,9 +7713,9 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="H14" s="53">
+        <v>763</v>
+      </c>
+      <c r="H14" s="52">
         <v>104666</v>
       </c>
       <c r="I14" s="31"/>
@@ -7753,7 +7753,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7787,7 +7787,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7809,7 +7809,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7817,10 +7817,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7834,10 +7834,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7851,10 +7851,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7868,10 +7868,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7885,10 +7885,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7902,10 +7902,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7919,10 +7919,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7936,10 +7936,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7953,10 +7953,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7970,10 +7970,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7987,10 +7987,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8004,10 +8004,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8021,10 +8021,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8073,13 +8073,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8092,10 +8092,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8120,7 +8120,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8128,10 +8128,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8156,7 +8156,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8183,7 +8183,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8192,7 +8192,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8214,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -8678,7 +8678,7 @@
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8696,7 +8696,7 @@
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8714,7 +8714,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8732,7 +8732,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>699</v>
+        <v>849</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8741,13 +8741,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8760,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8777,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8805,7 +8805,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="30" customFormat="1">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8867,7 +8867,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8895,7 +8895,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8957,7 +8957,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8985,7 +8985,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9068,7 +9068,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9096,7 +9096,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1">
@@ -9204,7 +9204,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9470,7 +9470,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9499,7 +9499,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9507,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9524,7 +9524,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9553,7 +9553,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9561,13 +9561,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9578,7 +9578,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9607,7 +9607,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9652,7 +9652,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9661,7 +9661,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="30" customFormat="1">
@@ -9692,7 +9692,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9701,7 +9701,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9721,7 +9721,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9741,7 +9741,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9769,7 +9769,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9778,7 +9778,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9789,7 +9789,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9798,7 +9798,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9818,7 +9818,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9832,10 +9832,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9848,7 +9848,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9857,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="43" customFormat="1">
@@ -9888,7 +9888,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9897,7 +9897,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9928,7 +9928,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10433,17 +10433,17 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
@@ -10461,7 +10461,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10651,14 +10651,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10682,14 +10682,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10712,14 +10712,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -10742,14 +10742,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -10772,14 +10772,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -10802,14 +10802,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -10832,14 +10832,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -10862,14 +10862,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -10892,14 +10892,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -10922,14 +10922,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -10952,14 +10952,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -10982,14 +10982,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -11013,14 +11013,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -11043,14 +11043,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -11073,14 +11073,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -11103,14 +11103,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -11133,14 +11133,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -11163,14 +11163,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -11193,14 +11193,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -11223,14 +11223,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -11253,14 +11253,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -11283,14 +11283,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -11307,14 +11307,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -11331,14 +11331,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -11355,14 +11355,14 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>64</v>
@@ -11420,19 +11420,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11451,7 +11451,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11472,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11675,7 +11675,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11696,7 +11696,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11834,7 +11834,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11899,7 +11899,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12146,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12349,7 +12349,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12370,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12573,7 +12573,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12594,7 +12594,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12818,7 +12818,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12843,7 +12843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13067,7 +13067,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13115,7 +13115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13387,7 +13387,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13613,7 +13613,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13638,7 +13638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13657,7 +13657,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13678,7 +13678,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13703,7 +13703,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13722,7 +13722,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13770,7 +13770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13814,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13833,7 +13833,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13858,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14015,7 +14015,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14285,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14400,7 +14400,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14513,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14534,7 +14534,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14764,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14829,7 +14829,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14871,7 +14871,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14961,7 +14961,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15212,7 +15212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15327,7 +15327,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15419,7 +15419,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15438,7 +15438,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15549,7 +15549,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15681,7 +15681,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15704,7 +15704,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15723,7 +15723,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15771,7 +15771,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15792,7 +15792,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15817,7 +15817,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15842,7 +15842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16089,7 +16089,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16114,7 +16114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16317,7 +16317,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16338,7 +16338,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16499,7 +16499,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16614,7 +16614,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16702,7 +16702,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16723,7 +16723,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16746,7 +16746,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17223,7 +17223,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17248,7 +17248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17290,7 +17290,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17309,7 +17309,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17328,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17349,7 +17349,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17640,7 +17640,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17665,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17688,7 +17688,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17872,7 +17872,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17956,7 +17956,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17977,7 +17977,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17996,7 +17996,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18017,7 +18017,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18036,7 +18036,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18057,7 +18057,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18099,7 +18099,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18118,7 +18118,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18143,7 +18143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18457,7 +18457,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18480,7 +18480,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18503,7 +18503,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18528,7 +18528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18547,7 +18547,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18572,7 +18572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18614,7 +18614,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18635,7 +18635,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18656,7 +18656,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18717,7 +18717,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18742,7 +18742,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19099,7 +19099,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19462,7 +19462,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19590,14 +19590,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="812">
   <si>
     <t>type</t>
   </si>
@@ -2167,69 +2167,12 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Electricity Consumption Period 1 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 9 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 10 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 1 Modeled</t>
-  </si>
-  <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
     <t>therms</t>
   </si>
   <si>
-    <t>Gas Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 9 Modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2416,64 +2359,7 @@
     <t>calibration_reports.electric_bill_consumption_modeled</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_10_consumption_modeled</t>
-  </si>
-  <si>
     <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_9_consumption_modeled</t>
   </si>
   <si>
     <t>Add Sys 3 - PSZ-AC Ngrid</t>
@@ -6951,7 +6837,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -7022,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7033,10 +6919,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7044,10 +6930,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7208,13 +7094,13 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="B30" s="30">
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="D30" s="35"/>
     </row>
@@ -7248,7 +7134,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7275,7 +7161,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7301,7 +7187,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7316,7 +7202,7 @@
         <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7349,7 +7235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
@@ -7509,13 +7395,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7528,16 +7414,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7545,16 +7431,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7590,7 +7476,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7615,7 +7501,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7683,13 +7569,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7713,7 +7599,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="H14" s="52">
         <v>104666</v>
@@ -7753,7 +7639,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7787,7 +7673,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7809,7 +7695,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7817,10 +7703,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7834,10 +7720,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7851,10 +7737,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7868,10 +7754,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7885,10 +7771,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7902,10 +7788,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7919,10 +7805,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7936,10 +7822,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7953,10 +7839,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7970,10 +7856,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7987,10 +7873,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8004,10 +7890,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8021,10 +7907,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8073,13 +7959,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8092,10 +7978,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8120,7 +8006,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8128,10 +8014,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8156,7 +8042,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8164,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>813</v>
+        <v>775</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8183,7 +8069,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>814</v>
+        <v>776</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8192,7 +8078,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8214,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8271,7 +8157,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8378,7 +8264,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8485,7 +8371,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8592,7 +8478,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -8714,7 +8600,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8732,7 +8618,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8760,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8777,7 +8663,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8805,7 +8691,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="30" customFormat="1">
@@ -8850,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8867,7 +8753,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8895,7 +8781,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8940,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8957,7 +8843,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8985,7 +8871,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9068,7 +8954,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9096,7 +8982,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1">
@@ -9204,7 +9090,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9470,7 +9356,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9499,7 +9385,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9507,13 +9393,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>817</v>
+        <v>779</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>818</v>
+        <v>780</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>818</v>
+        <v>780</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9524,7 +9410,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>819</v>
+        <v>781</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9553,7 +9439,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9561,13 +9447,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>820</v>
+        <v>782</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9578,7 +9464,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9607,7 +9493,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9652,7 +9538,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>823</v>
+        <v>785</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9661,7 +9547,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9684,7 +9570,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="30" customFormat="1">
@@ -9692,7 +9578,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>825</v>
+        <v>787</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9701,7 +9587,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9712,7 +9598,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>826</v>
+        <v>788</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9721,7 +9607,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9732,7 +9618,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9741,7 +9627,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9752,7 +9638,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>829</v>
+        <v>791</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9769,7 +9655,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>830</v>
+        <v>792</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9778,7 +9664,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9789,7 +9675,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9798,7 +9684,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9809,7 +9695,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>832</v>
+        <v>794</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9818,7 +9704,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9832,10 +9718,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9848,7 +9734,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9857,7 +9743,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9880,7 +9766,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="43" customFormat="1">
@@ -9888,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9897,7 +9783,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9920,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9928,7 +9814,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10426,11 +10312,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -10655,7 +10541,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>707</v>
@@ -10672,10 +10558,7 @@
       <c r="H8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
-        <f>SUM(I9:I18)</f>
-        <v>39359</v>
-      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -10686,10 +10569,10 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10703,25 +10586,23 @@
       <c r="H9" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="30">
-        <v>4153</v>
-      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E10" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="30" t="b">
@@ -10731,27 +10612,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>3732</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="30" t="b">
@@ -10761,27 +10639,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>3884</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E12" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="30" t="b">
@@ -10791,27 +10666,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>3708</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E13" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="30" t="b">
@@ -10821,585 +10693,35 @@
         <v>1</v>
       </c>
       <c r="H13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>4009</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30" t="s">
-        <v>713</v>
-      </c>
+      <c r="A14" s="30"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <v>5042</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
-        <v>714</v>
-      </c>
+      <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>4616</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30" t="s">
-        <v>715</v>
-      </c>
+      <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <v>3115</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="30" t="s">
-        <v>716</v>
-      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>3357</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>3743</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <f>SUM(I20:I28)</f>
-        <v>2239</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
-        <v>1038</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="30" t="s">
-        <v>721</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <v>724</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
-        <v>297</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="30">
-        <v>71</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <v>14</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="30" t="s">
-        <v>725</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <v>1</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <v>22</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <v>72</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>834</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="30" t="s">
-        <v>840</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -7235,9 +7235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="A4:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -7636,7 +7636,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N15" s="43">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>754</v>
@@ -7692,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="51" t="s">
         <v>754</v>
@@ -8003,7 +8003,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="N34" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" s="43" t="s">
         <v>754</v>
@@ -8039,7 +8039,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N35" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q35" s="43" t="s">
         <v>754</v>
@@ -8688,7 +8688,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N61" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q61" s="43" t="s">
         <v>754</v>
@@ -8778,7 +8778,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N65" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q65" s="43" t="s">
         <v>754</v>
@@ -8868,7 +8868,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N69" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" s="43" t="s">
         <v>754</v>
@@ -10314,7 +10314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$154</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="820">
   <si>
     <t>type</t>
   </si>
@@ -2477,6 +2477,30 @@
   </si>
   <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -6737,17 +6761,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6771,14 +6795,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6810,7 +6834,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6821,7 +6845,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6832,7 +6856,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6843,7 +6867,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6862,7 +6886,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6947,7 +6971,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6980,7 +7004,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7005,7 +7029,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7129,7 +7153,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7150,7 +7174,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7203,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7233,39 +7257,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="A4:XFD108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7300,7 +7324,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7316,7 +7340,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7583,7 +7607,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8627,161 +8651,165 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>812</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>813</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>813</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
-      <c r="A60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>68</v>
-      </c>
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>77</v>
+        <v>818</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>64</v>
+        <v>619</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>819</v>
       </c>
       <c r="H61" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J61" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="43">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="45">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45">
+        <v>1</v>
       </c>
       <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
-        <v>0.14166666666666669</v>
+        <f>(K61-J61)/6</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N61" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="P61" s="47"/>
       <c r="Q61" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="49" customFormat="1">
+      <c r="A63" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K64" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
-      <c r="A64" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>755</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>756</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8789,89 +8817,89 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="49" customFormat="1">
+      <c r="A67" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
-      <c r="A68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>757</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>758</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -8879,53 +8907,72 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="49" customFormat="1">
+      <c r="A71" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>758</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
-      <c r="A72" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>68</v>
+      <c r="H72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -8933,221 +8980,182 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>759</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>0</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="49" customFormat="1">
+      <c r="A75" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>0</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="50" customFormat="1">
+      <c r="A81" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B81" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E81" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>760</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-60</v>
-      </c>
-      <c r="K80" s="45">
-        <v>60</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9156,17 +9164,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9175,31 +9186,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>760</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>0</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K83" s="45">
+        <v>60</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9207,18 +9230,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9234,17 +9257,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9260,13 +9283,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9286,16 +9309,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9305,22 +9328,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
-      <c r="A88" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9329,20 +9361,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9351,186 +9380,184 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-30</v>
-      </c>
-      <c r="K90" s="45">
-        <v>30</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>754</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>779</v>
+        <v>327</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>780</v>
+        <v>328</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>780</v>
+        <v>328</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D93" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>0</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K93" s="45">
+        <v>30</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="50" customFormat="1">
+      <c r="A94" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>780</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>780</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-50</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>25</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
-      <c r="A93" s="50" t="b">
+    <row r="96" spans="1:17" s="50" customFormat="1">
+      <c r="A96" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C96" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D96" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E96" s="50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>784</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>0</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-50</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
@@ -9538,33 +9565,30 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>786</v>
-      </c>
       <c r="H97" s="43">
         <v>0</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="K97" s="45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9573,24 +9597,21 @@
         <v>754</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
+    <row r="98" spans="1:17" s="50" customFormat="1">
+      <c r="A98" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1">
@@ -9598,39 +9619,59 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>788</v>
+        <v>373</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G100" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
+      <c r="H100" s="43">
+        <v>0</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K100" s="45">
+        <v>80</v>
+      </c>
+      <c r="L100" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1">
@@ -9638,15 +9679,18 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="H101" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9655,19 +9699,19 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H102" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
@@ -9675,16 +9719,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9695,153 +9739,198 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="H105" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="H106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H107" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
-      <c r="A105" s="38" t="b">
+    <row r="108" spans="1:17" s="38" customFormat="1">
+      <c r="A108" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B108" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C108" s="38" t="s">
         <v>803</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D108" s="38" t="s">
         <v>803</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E108" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
-      <c r="B106" s="43" t="s">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="43" customFormat="1">
+      <c r="B109" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>804</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E109" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F109" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G109" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H109" s="43">
         <v>1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="45">
+      <c r="I109" s="46"/>
+      <c r="J109" s="45">
         <v>-2</v>
       </c>
-      <c r="K106" s="45">
-        <v>2</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0</v>
-      </c>
-      <c r="M106" s="45">
-        <f>(K106-J106)/6</f>
+      <c r="K109" s="45">
+        <v>2</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0</v>
+      </c>
+      <c r="M109" s="45">
+        <f>(K109-J109)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N109" s="45">
         <v>1</v>
       </c>
-      <c r="Q106" s="43" t="s">
+      <c r="Q109" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
-      <c r="B107" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>806</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H110" s="43">
         <v>-1</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="45">
+      <c r="I110" s="46"/>
+      <c r="J110" s="45">
         <v>-2</v>
       </c>
-      <c r="K107" s="45">
-        <v>2</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0</v>
-      </c>
-      <c r="M107" s="45">
-        <f>(K107-J107)/6</f>
+      <c r="K110" s="45">
+        <v>2</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0</v>
+      </c>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N110" s="45">
         <v>1</v>
       </c>
-      <c r="Q107" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="B108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    <row r="111" spans="1:17">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E111" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:17">
       <c r="H112" s="31"/>
@@ -10295,8 +10384,20 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
+    <row r="225" spans="8:9">
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z154"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10319,20 +10420,20 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10347,7 +10448,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10382,7 +10483,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10742,19 +10843,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10773,7 +10874,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10794,7 +10895,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10817,7 +10918,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10840,7 +10941,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10863,7 +10964,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10886,7 +10987,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10909,7 +11010,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10932,7 +11033,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10955,7 +11056,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10978,7 +11079,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10997,7 +11098,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11018,7 +11119,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11041,7 +11142,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11064,7 +11165,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11087,7 +11188,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11110,7 +11211,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11133,7 +11234,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11156,7 +11257,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11179,7 +11280,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11202,7 +11303,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11221,7 +11322,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11244,7 +11345,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11267,7 +11368,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11290,7 +11391,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11313,7 +11414,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11336,7 +11437,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11359,7 +11460,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11382,7 +11483,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11405,7 +11506,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11428,7 +11529,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11447,7 +11548,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11468,7 +11569,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11491,7 +11592,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11514,7 +11615,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11537,7 +11638,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11560,7 +11661,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11583,7 +11684,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11606,7 +11707,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11629,7 +11730,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11753,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11671,7 +11772,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11692,7 +11793,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11715,7 +11816,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11738,7 +11839,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11761,7 +11862,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11784,7 +11885,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11807,7 +11908,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11830,7 +11931,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11853,7 +11954,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11876,7 +11977,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11895,7 +11996,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11916,7 +12017,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11939,7 +12040,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11962,7 +12063,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11985,7 +12086,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12008,7 +12109,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12031,7 +12132,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12054,7 +12155,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12077,7 +12178,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12100,7 +12201,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12119,7 +12220,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12140,7 +12241,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12165,7 +12266,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12188,7 +12289,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12211,7 +12312,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12234,7 +12335,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12358,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12381,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12404,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12427,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12450,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12368,7 +12469,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12389,7 +12490,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12412,7 +12513,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12437,7 +12538,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12460,7 +12561,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12483,7 +12584,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12506,7 +12607,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12630,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12653,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12676,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12699,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12722,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12745,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12768,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12686,7 +12787,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12709,7 +12810,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12732,7 +12833,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12755,7 +12856,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12778,7 +12879,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12801,7 +12902,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12824,7 +12925,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12847,7 +12948,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12870,7 +12971,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12893,7 +12994,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12916,7 +13017,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12935,7 +13036,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12960,7 +13061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12979,7 +13080,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13000,7 +13101,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13126,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13044,7 +13145,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13067,7 +13168,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13115,7 +13216,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13136,7 +13237,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13155,7 +13256,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13180,7 +13281,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13203,7 +13304,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13226,7 +13327,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13249,7 +13350,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13272,7 +13373,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13295,7 +13396,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13419,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13337,7 +13438,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13360,7 +13461,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13383,7 +13484,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13406,7 +13507,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13425,7 +13526,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13448,7 +13549,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13471,7 +13572,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13494,7 +13595,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13517,7 +13618,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13540,7 +13641,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13563,7 +13664,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13582,7 +13683,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13607,7 +13708,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13731,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13653,7 +13754,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13777,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13699,7 +13800,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13722,7 +13823,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13745,7 +13846,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13768,7 +13869,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13892,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13810,7 +13911,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13835,7 +13936,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13856,7 +13957,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13879,7 +13980,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13902,7 +14003,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13925,7 +14026,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13948,7 +14049,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13971,7 +14072,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13994,7 +14095,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14118,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14141,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14164,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14187,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14210,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14233,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14151,7 +14252,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14174,7 +14275,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14193,7 +14294,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14216,7 +14317,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14340,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14258,7 +14359,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14283,7 +14384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14306,7 +14407,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14329,7 +14430,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14352,7 +14453,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14375,7 +14476,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14499,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14522,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14545,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14568,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14591,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14509,7 +14610,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14534,7 +14635,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14557,7 +14658,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14580,7 +14681,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14603,7 +14704,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14727,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14750,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14773,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14695,7 +14796,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14718,7 +14819,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14842,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14760,7 +14861,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14783,7 +14884,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14806,7 +14907,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14829,7 +14930,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14852,7 +14953,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14871,7 +14972,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14894,7 +14995,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14917,7 +15018,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14940,7 +15041,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14963,7 +15064,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14982,7 +15083,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15003,7 +15104,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15026,7 +15127,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15045,7 +15146,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15169,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15093,7 +15194,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15114,7 +15215,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15139,7 +15240,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15164,7 +15265,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15183,7 +15284,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15208,7 +15309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15231,7 +15332,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15254,7 +15355,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15277,7 +15378,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15300,7 +15401,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15424,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15346,7 +15447,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15470,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15493,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15411,7 +15512,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15436,7 +15537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15459,7 +15560,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15482,7 +15583,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15505,7 +15606,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15528,7 +15629,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15551,7 +15652,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15675,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15698,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15721,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15639,7 +15740,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15660,7 +15761,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15683,7 +15784,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15706,7 +15807,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15729,7 +15830,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15752,7 +15853,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15775,7 +15876,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15798,7 +15899,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15821,7 +15922,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15844,7 +15945,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15867,7 +15968,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15890,7 +15991,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15913,7 +16014,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15936,7 +16037,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15959,7 +16060,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15982,7 +16083,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16005,7 +16106,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16024,7 +16125,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16045,7 +16146,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16068,7 +16169,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16091,7 +16192,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16114,7 +16215,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16238,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16261,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16284,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16206,7 +16307,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16229,7 +16330,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16252,7 +16353,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16275,7 +16376,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16298,7 +16399,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16321,7 +16422,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16344,7 +16445,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16367,7 +16468,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16390,7 +16491,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16409,7 +16510,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16434,7 +16535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16457,7 +16558,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16480,7 +16581,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16503,7 +16604,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16526,7 +16627,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16545,7 +16646,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16570,7 +16671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16593,7 +16694,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16612,7 +16713,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16631,7 +16732,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16650,7 +16751,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16671,7 +16772,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16694,7 +16795,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16717,7 +16818,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16740,7 +16841,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16763,7 +16864,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16786,7 +16887,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16809,7 +16910,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16832,7 +16933,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16855,7 +16956,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16878,7 +16979,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16901,7 +17002,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16920,7 +17021,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16943,7 +17044,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16962,7 +17063,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16987,7 +17088,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17010,7 +17111,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17033,7 +17134,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17056,7 +17157,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17079,7 +17180,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17102,7 +17203,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17125,7 +17226,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17148,7 +17249,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17171,7 +17272,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17194,7 +17295,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17318,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17236,7 +17337,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17259,7 +17360,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17278,7 +17379,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17299,7 +17400,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17318,7 +17419,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17339,7 +17440,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17358,7 +17459,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17379,7 +17480,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17398,7 +17499,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17421,7 +17522,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17440,7 +17541,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17465,7 +17566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17488,7 +17589,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17511,7 +17612,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17534,7 +17635,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17557,7 +17658,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17580,7 +17681,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17603,7 +17704,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17626,7 +17727,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17750,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17668,7 +17769,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17691,7 +17792,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17714,7 +17815,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17737,7 +17838,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17760,7 +17861,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17779,7 +17880,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17802,7 +17903,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17825,7 +17926,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17850,7 +17951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17869,7 +17970,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17894,7 +17995,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17917,7 +18018,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17936,7 +18037,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17957,7 +18058,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17978,7 +18079,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18001,7 +18102,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18020,7 +18121,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18039,7 +18140,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18064,7 +18165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18421,7 +18522,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18784,7 +18885,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18912,14 +19013,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration_14.xlsx
+++ b/projects/office_calibration_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6761,17 +6761,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6791,18 +6791,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6834,7 +6834,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>557</v>
       </c>
       <c r="B26" s="29">
-        <v>900360000000000</v>
+        <v>450360000000000</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>575</v>
@@ -7087,7 +7087,7 @@
         <v>558</v>
       </c>
       <c r="B27" s="30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>574</v>
@@ -7153,7 +7153,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7259,37 +7259,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7324,7 +7324,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="18">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8789,7 +8789,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N64" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q64" s="43" t="s">
         <v>754</v>
@@ -8879,7 +8879,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N68" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q68" s="43" t="s">
         <v>754</v>
@@ -8969,7 +8969,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N72" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q72" s="43" t="s">
         <v>754</v>
@@ -10420,20 +10420,20 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10448,7 +10448,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10843,19 +10843,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10895,7 +10895,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11098,7 +11098,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11119,7 +11119,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11569,7 +11569,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11772,7 +11772,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11793,7 +11793,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12017,7 +12017,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12220,7 +12220,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12241,7 +12241,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12266,7 +12266,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12490,7 +12490,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12538,7 +12538,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12787,7 +12787,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13036,7 +13036,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13061,7 +13061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13101,7 +13101,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13126,7 +13126,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13145,7 +13145,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13193,7 +13193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13237,7 +13237,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13281,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13438,7 +13438,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13526,7 +13526,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13683,7 +13683,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13708,7 +13708,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13911,7 +13911,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13936,7 +13936,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13957,7 +13957,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14049,7 +14049,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14294,7 +14294,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14340,7 +14340,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14359,7 +14359,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14407,7 +14407,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14635,7 +14635,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14727,7 +14727,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14861,7 +14861,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14930,7 +14930,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14972,7 +14972,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15064,7 +15064,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15104,7 +15104,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15146,7 +15146,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15194,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15215,7 +15215,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15240,7 +15240,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15265,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15284,7 +15284,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15309,7 +15309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15424,7 +15424,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15493,7 +15493,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15512,7 +15512,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15537,7 +15537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15606,7 +15606,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15761,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16014,7 +16014,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16060,7 +16060,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16125,7 +16125,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16146,7 +16146,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16192,7 +16192,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16330,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16510,7 +16510,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16535,7 +16535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16627,7 +16627,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16671,7 +16671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16713,7 +16713,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16732,7 +16732,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16751,7 +16751,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16772,7 +16772,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16956,7 +16956,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17021,7 +17021,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17063,7 +17063,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17088,7 +17088,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17134,7 +17134,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17226,7 +17226,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17337,7 +17337,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17379,7 +17379,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17400,7 +17400,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17419,7 +17419,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17440,7 +17440,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17459,7 +17459,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17480,7 +17480,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17499,7 +17499,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17522,7 +17522,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17541,7 +17541,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17566,7 +17566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17769,7 +17769,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17838,7 +17838,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17880,7 +17880,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17926,7 +17926,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17951,7 +17951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17970,7 +17970,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17995,7 +17995,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18037,7 +18037,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18058,7 +18058,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18079,7 +18079,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18121,7 +18121,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18140,7 +18140,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18165,7 +18165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18522,7 +18522,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18885,7 +18885,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19013,14 +19013,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
